--- a/First degree science.xlsx
+++ b/First degree science.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/xiaoshu_lin_yale_edu/Documents/研究生学习存档（把握最后当学生的机会）/🐟/Data &amp; Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="800" documentId="11_F25DC773A252ABDACC1048E7B19F7C7C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC1649E-4FA5-47BB-A654-8D754BB41CDC}"/>
+  <xr:revisionPtr revIDLastSave="996" documentId="11_F25DC773A252ABDACC1048E7B19F7C7C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383CFD20-25C4-4679-B7F7-78ECFFA6A42E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="16200" windowHeight="9982" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy documents" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,9 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Cleaning!$A$1:$J$47</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="236">
   <si>
     <t>Article Title</t>
   </si>
@@ -597,6 +600,195 @@
   </si>
   <si>
     <t>citation_binary</t>
+  </si>
+  <si>
+    <t>Climate change implications for Torres Strait fisheries: assessing vulnerability to inform adaptation</t>
+  </si>
+  <si>
+    <t>Johnson, Johanna E.; Welch, David J.</t>
+  </si>
+  <si>
+    <t>CLIMATIC CHANGE</t>
+  </si>
+  <si>
+    <t>Modeling sea-level rise vulnerability of coastal environments using ranked management concerns</t>
+  </si>
+  <si>
+    <t>Kane, Haunani H.; Fletcher, Charles H.; Frazer, L. Neil; Anderson, Tiffany R.; Barbee, Matthew M.</t>
+  </si>
+  <si>
+    <t>An updated assessment of the risks from climate change based on research published since the IPCC Fourth Assessment Report</t>
+  </si>
+  <si>
+    <t>Fuessel, Hans-Martin</t>
+  </si>
+  <si>
+    <t>Geoengineering climate by stratospheric sulfur injections: Earth system vulnerability to technological failure</t>
+  </si>
+  <si>
+    <t>Brovkin, Victor; Petoukhov, Vladimir; Claussen, Martin; Bauer, Eva; Archer, David; Jaeger, Carlo</t>
+  </si>
+  <si>
+    <t>Assessing vulnerability due to sea-level rise in Maui, Hawai'i using LiDAR remote sensing and GIS</t>
+  </si>
+  <si>
+    <t>Cooper, Hannah M.; Chen, Qi; Fletcher, Charles H.; Barbee, Matthew M.</t>
+  </si>
+  <si>
+    <t>Allowances for evolving coastal flood risk under uncertain local sea-level rise</t>
+  </si>
+  <si>
+    <t>Buchanan, Maya K.; Kopp, Robert E.; Oppenheimer, Michael; Tebaldi, Claudia</t>
+  </si>
+  <si>
+    <t>The risk of sea level rise</t>
+  </si>
+  <si>
+    <t>Titus, JG; Narayanan, V</t>
+  </si>
+  <si>
+    <t>Evaluation of the combined risk of sea level rise, land subsidence, and storm surges on the coastal areas of Shanghai, China</t>
+  </si>
+  <si>
+    <t>Wang, Jun; Gao, Wei; Xu, Shiyuan; Yu, Lizhong</t>
+  </si>
+  <si>
+    <t>Incorporating uncertainty of future sea-level rise estimates into vulnerability assessment: A case study in Kahului, Maui</t>
+  </si>
+  <si>
+    <t>Cooper, Hannah M.; Chen, Qi</t>
+  </si>
+  <si>
+    <t>Climate change risks to US infrastructure: impacts on roads, bridges, coastal development, and urban drainage</t>
+  </si>
+  <si>
+    <t>Neumann, James E.; Price, Jason; Chinowsky, Paul; Wright, Leonard; Ludwig, Lindsay; Streeter, Richard; Jones, Russell; Smith, Joel B.; Perkins, William; Jantarasami, Lesley; Martinich, Jeremy</t>
+  </si>
+  <si>
+    <t>Risk-based reanalysis of the effects of climate change on US cold-water habitat</t>
+  </si>
+  <si>
+    <t>Preston, Benjamin L.</t>
+  </si>
+  <si>
+    <t>Climate change vulnerability and response strategies for the coastal zone of Poland</t>
+  </si>
+  <si>
+    <t>Zeidler, RB</t>
+  </si>
+  <si>
+    <t>Assessment of social vulnerability to climate change in the eastern coast of India</t>
+  </si>
+  <si>
+    <t>Maiti, Sanjit; Jha, Sujeet Kumar; Garai, Sanchita; Nag, Arindam; Chakravarty, R.; Kadian, K. S.; Chandel, B. S.; Datta, K. K.; Upadhyay, R. C.</t>
+  </si>
+  <si>
+    <t>Risk management tools for sustainable fisheries management under changing climate: a sea cucumber example</t>
+  </si>
+  <si>
+    <t>Plaganyi, Eva E.; Skewes, Timothy D.; Dowling, Natalie A.; Haddon, Malcolm</t>
+  </si>
+  <si>
+    <t>Culture, law, risk and governance: contexts of traditional knowledge in climate change adaptation</t>
+  </si>
+  <si>
+    <t>Williams, Terry; Hardison, Preston</t>
+  </si>
+  <si>
+    <t>Drinking water vulnerability to climate change and alternatives for adaptation in coastal South and South East Asia</t>
+  </si>
+  <si>
+    <t>Hoque, M. A.; Scheelbeek, P. F. D.; Vineis, P.; Khan, A. E.; Ahmed, K. M.; Butler, A. P.</t>
+  </si>
+  <si>
+    <t>Vulnerability of island tropical montane cloud forests to climate change, with special reference to East Maui, Hawaii</t>
+  </si>
+  <si>
+    <t>Loope, LL; Giambelluca, TW</t>
+  </si>
+  <si>
+    <t>Uncertainty and risk in climate projections for the 21st century: comparing mitigation to non-intervention scenarios</t>
+  </si>
+  <si>
+    <t>Tomassini, Lorenzo; Knutti, Reto; Plattner, Gian-Kasper; van Vuuren, Detlef P.; Stocker, Thomas F.; Howarth, Richard B.; Borsuk, Mark E.</t>
+  </si>
+  <si>
+    <t>Reducing vulnerability of agriculture and forestry to climate variability and change: Workshop summary and recommendations</t>
+  </si>
+  <si>
+    <t>Salinger, MJ; Sivakumar, MVK; Motha, R</t>
+  </si>
+  <si>
+    <t>Public health impacts of climate change in Washington State: projected mortality risks due to heat events and air pollution</t>
+  </si>
+  <si>
+    <t>Jackson, J. Elizabeth; Yost, Michael G.; Karr, Catherine; Fitzpatrick, Cole; Lamb, Brian K.; Chung, Serena H.; Chen, Jack; Avise, Jeremy; Rosenblatt, Roger A.; Fenske, Richard A.</t>
+  </si>
+  <si>
+    <t>Managing climate risks in California: the need to engage resource managers for successful adaptation to change</t>
+  </si>
+  <si>
+    <t>Moser, Susanne C.; Luers, Amy Lynd</t>
+  </si>
+  <si>
+    <t>Climate change, agriculture and wetlands in Eastern Europe: Vulnerability, adaptation and policy</t>
+  </si>
+  <si>
+    <t>Hartig, EK; Grozev, O; Rosenzweig, C</t>
+  </si>
+  <si>
+    <t>Identifying hot spots of security vulnerability associated with climate change in Africa</t>
+  </si>
+  <si>
+    <t>Busby, Joshua W.; Cook, Kerry H.; Vizy, Edward K.; Smith, Todd G.; Bekalo, Mesfin</t>
+  </si>
+  <si>
+    <t>Theory and practice in assessing vulnerability to climate change and facilitating adaptation</t>
+  </si>
+  <si>
+    <t>Kelly, PM; Adger, WN</t>
+  </si>
+  <si>
+    <t>Vulnerability of the oil and gas sector to climate change and extreme weather events</t>
+  </si>
+  <si>
+    <t>Cruz, Ana Maria; Krausmann, Elisabeth</t>
+  </si>
+  <si>
+    <t>Correlates of vulnerability to climate-induced distribution changes in European avifauna: habitat, migration and endemism</t>
+  </si>
+  <si>
+    <t>Goodenough, Anne E.; Hart, Adam G.</t>
+  </si>
+  <si>
+    <t>Expert assessment of vulnerability of permafrost carbon to climate change</t>
+  </si>
+  <si>
+    <t>Schuur, E. A. G.; Abbott, B. W.; Bowden, W. B.; Brovkin, V.; Camill, P.; Canadell, J. G.; Chanton, J. P.; Chapin, F. S., III; Christensen, T. R.; Ciais, P.; Crosby, B. T.; Czimczik, C. I.; Grosse, G.; Harden, J.; Hayes, D. J.; Hugelius, G.; Jastrow, J. D.; Jones, J. B.; Kleinen, T.; Koven, C. D.; Krinner, G.; Kuhry, P.; Lawrence, D. M.; McGuire, A. D.; Natali, S. M.; O'Donnell, J. A.; Ping, C. L.; Riley, W. J.; Rinke, A.; Romanovsky, V. E.; Sannel, A. B. K.; Schaedel, C.; Schaefer, K.; Sky, J.; Subin, Z. M.; Tarnocai, C.; Turetsky, M. R.; Waldrop, M. P.; Anthony, K. M. Walter; Wickland, K. P.; Wilson, C. J.; Zimov, S. A.</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>theor</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>Note: Highlighted in light green are the policy sample; highlighted in dark green are academic sample comparable to second degree science</t>
   </si>
 </sst>
 </file>
@@ -656,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -671,7 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,13 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,24 +907,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,7 +1300,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1132,7 +1329,7 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>42614</v>
       </c>
     </row>
@@ -1143,7 +1340,7 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>42705</v>
       </c>
     </row>
@@ -1154,7 +1351,7 @@
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="3">
         <v>42705</v>
       </c>
     </row>
@@ -1165,7 +1362,7 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="3">
         <v>42675</v>
       </c>
     </row>
@@ -1176,7 +1373,7 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="3">
         <v>42705</v>
       </c>
     </row>
@@ -1187,7 +1384,7 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>42217</v>
       </c>
     </row>
@@ -1200,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB221BB-934D-426B-8F20-B29638A3C66F}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1210,25 +1407,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1236,7 +1433,7 @@
       <c r="A2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
@@ -1253,7 +1450,7 @@
       <c r="A3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
@@ -1270,7 +1467,7 @@
       <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
@@ -1287,7 +1484,7 @@
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C5" t="s">
@@ -1307,7 +1504,7 @@
       <c r="A6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C6" t="s">
@@ -1324,7 +1521,7 @@
       <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -1341,7 +1538,7 @@
       <c r="A8" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C8" t="s">
@@ -1375,7 +1572,7 @@
       <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
@@ -1395,7 +1592,7 @@
       <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
@@ -1412,7 +1609,7 @@
       <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C12" t="s">
@@ -1432,7 +1629,7 @@
       <c r="A13" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C13" t="s">
@@ -1483,7 +1680,7 @@
       <c r="A16" t="s">
         <v>168</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C16" t="s">
@@ -1506,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64AE906-7FEE-4C86-96DA-BB35D65E6CFE}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1549,7 +1746,7 @@
         <f>IFERROR(INDEX('Policy CVAs'!$B$2:$B$13, MATCH(A2,'Policy CVAs'!$B$2:$B$13, 0)), "")</f>
         <v/>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2022,7 +2219,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
@@ -2274,7 +2471,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B43" t="s">
@@ -2285,6 +2482,465 @@
       </c>
       <c r="D43">
         <v>2015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44">
+        <v>2016</v>
+      </c>
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45">
+        <v>2015</v>
+      </c>
+      <c r="E45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46">
+        <v>2009</v>
+      </c>
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47">
+        <v>2009</v>
+      </c>
+      <c r="E47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48">
+        <v>2013</v>
+      </c>
+      <c r="E48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49">
+        <v>2016</v>
+      </c>
+      <c r="E49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50">
+        <v>1996</v>
+      </c>
+      <c r="E50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51">
+        <v>2012</v>
+      </c>
+      <c r="E51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52">
+        <v>2013</v>
+      </c>
+      <c r="E52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53">
+        <v>2015</v>
+      </c>
+      <c r="E53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54">
+        <v>2006</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55">
+        <v>1997</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56">
+        <v>2015</v>
+      </c>
+      <c r="E56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57">
+        <v>2013</v>
+      </c>
+      <c r="E57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58">
+        <v>2013</v>
+      </c>
+      <c r="E58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <v>2016</v>
+      </c>
+      <c r="E59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60">
+        <v>1998</v>
+      </c>
+      <c r="E60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61">
+        <v>2010</v>
+      </c>
+      <c r="E61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62">
+        <v>2005</v>
+      </c>
+      <c r="E62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63">
+        <v>2010</v>
+      </c>
+      <c r="E63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>214</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64">
+        <v>2008</v>
+      </c>
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65">
+        <v>1997</v>
+      </c>
+      <c r="E65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66">
+        <v>2014</v>
+      </c>
+      <c r="E66" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67">
+        <v>2000</v>
+      </c>
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68">
+        <v>2013</v>
+      </c>
+      <c r="E68" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69">
+        <v>2013</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70">
+        <v>2013</v>
+      </c>
+      <c r="E70" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2294,1250 +2950,1694 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C8723E-420C-4703-94A2-20B83C7EA3A0}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="63.265625" customWidth="1"/>
-    <col min="3" max="3" width="9.06640625" style="5"/>
-    <col min="4" max="4" width="9.1328125" style="5"/>
-    <col min="6" max="6" width="15.265625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" style="7"/>
+    <col min="1" max="1" width="67.46484375" customWidth="1"/>
+    <col min="6" max="6" width="8.265625" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2015</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <f>2016-B2</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="7" cm="1">
-        <f t="array" ref="F2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A2)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>2016-C2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A2)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A2)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2014</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E39" si="0">2016-B3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F47" si="0">2016-C3</f>
         <v>2</v>
       </c>
-      <c r="F3" s="7" cm="1">
-        <f t="array" ref="F3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A3)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A3)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" cm="1">
+        <f t="array" ref="K3">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A3)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="M3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2016</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="7" cm="1">
-        <f t="array" ref="F4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A4)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A4)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" cm="1">
+        <f t="array" ref="K4">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A4)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2013</v>
       </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5" s="7" cm="1">
-        <f t="array" ref="F5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A5)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A5)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" cm="1">
+        <f t="array" ref="K5">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A5)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2012</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F6" s="7" cm="1">
-        <f t="array" ref="F6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A6)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A6)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A6)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2015</v>
       </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F7" s="7" cm="1">
-        <f t="array" ref="F7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A7)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
+      <c r="G7" cm="1">
+        <f t="array" ref="G7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A7)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A7)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2013</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F8" s="7" cm="1">
-        <f t="array" ref="F8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A8)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A8)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A8)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2012</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F9" s="7" cm="1">
-        <f t="array" ref="F9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A9)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
+      <c r="G9" cm="1">
+        <f t="array" ref="G9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A9)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A9)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2014</v>
       </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F10" s="7" cm="1">
-        <f t="array" ref="F10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A10)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
+      <c r="G10" cm="1">
+        <f t="array" ref="G10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A10)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A10)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2013</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F11" s="7" cm="1">
-        <f t="array" ref="F11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A11)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
+      <c r="G11" cm="1">
+        <f t="array" ref="G11">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A11)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2015</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F12" s="7" cm="1">
-        <f t="array" ref="F12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A12)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
+      <c r="G12" cm="1">
+        <f t="array" ref="G12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A12)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A12)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2011</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F13" s="7" cm="1">
-        <f t="array" ref="F13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A13)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="G13" cm="1">
+        <f t="array" ref="G13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A13)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A13)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2016</v>
       </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="7" cm="1">
-        <f t="array" ref="F14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A14)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="G14" cm="1">
+        <f t="array" ref="G14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A14)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A14)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2016</v>
       </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="7" cm="1">
-        <f t="array" ref="F15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A15)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" cm="1">
+        <f t="array" ref="G15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A15)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A15)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2016</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="7" cm="1">
-        <f t="array" ref="F16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A16)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A16)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2014</v>
       </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F17" s="7" cm="1">
-        <f t="array" ref="F17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A17)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A17)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A17)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>2012</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F18" s="7" cm="1">
-        <f t="array" ref="F18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A18)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
+      <c r="G18" cm="1">
+        <f t="array" ref="G18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A18)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A18)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2016</v>
       </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="7" cm="1">
-        <f t="array" ref="F19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A19)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A19)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2013</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F20" s="7" cm="1">
-        <f t="array" ref="F20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A20)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" cm="1">
+        <f t="array" ref="G20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A20)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A20)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2015</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="7" cm="1">
-        <f t="array" ref="F21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A21)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="G21" cm="1">
+        <f t="array" ref="G21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A21)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A21)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2016</v>
       </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
+      <c r="D22">
+        <v>3</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="7" cm="1">
-        <f t="array" ref="F22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A22)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1</v>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A22)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A22)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>155</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2013</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="F23" s="7" cm="1">
-        <f t="array" ref="F23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A23)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A23)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A23)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2007</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F24" s="7" cm="1">
-        <f t="array" ref="F24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A24)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>1</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A24)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A24)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2015</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F25" s="7" cm="1">
-        <f t="array" ref="F25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A25)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>1</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A25)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2013</v>
       </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F26" s="7" cm="1">
-        <f t="array" ref="F26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A26)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
+      <c r="G26" cm="1">
+        <f t="array" ref="G26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A26)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A26)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>2016</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A27)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A27)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
         <v>2015</v>
       </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F27" s="7" cm="1">
-        <f t="array" ref="F27">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A27)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A28)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A28)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>2015</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A29)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A29)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>2015</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A30)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A30)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31">
+        <v>2014</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>2004</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A32)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
         <v>2016</v>
       </c>
-      <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="7" cm="1">
-        <f t="array" ref="F28">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A28)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29">
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A33)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A33)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>2012</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A34)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A34)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35">
         <v>2015</v>
       </c>
-      <c r="C29" s="5">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F29" s="7" cm="1">
-        <f t="array" ref="F29">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A29)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30">
+      <c r="G35" cm="1">
+        <f t="array" ref="G35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A35)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A35)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36">
         <v>2013</v>
       </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F30" s="7" cm="1">
-        <f t="array" ref="F30">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A30)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A36)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A36)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37">
+        <v>2013</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A37)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A37)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
         <v>2015</v>
       </c>
-      <c r="C31" s="5">
-        <v>0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F31" s="7" cm="1">
-        <f t="array" ref="F31">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A31)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32">
-        <v>2014</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A38)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A38)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39">
+        <v>2016</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F32" s="7" cm="1">
-        <f t="array" ref="F32">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A32)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <v>2004</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
-      </c>
-      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A39)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A39)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40">
+        <v>2015</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F33" s="7" cm="1">
-        <f t="array" ref="F33">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A33)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34">
-        <v>2016</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5">
-        <v>1</v>
-      </c>
-      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A40)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A40)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41">
+        <v>2013</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="7" cm="1">
-        <f t="array" ref="F34">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A34)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A41)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A41)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42">
         <v>2012</v>
       </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F35" s="7" cm="1">
-        <f t="array" ref="F35">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A35)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36">
-        <v>2015</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F36" s="7" cm="1">
-        <f t="array" ref="F36">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A36)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B37">
+      <c r="G42" cm="1">
+        <f t="array" ref="G42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A42)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A42)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43">
         <v>2013</v>
       </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F37" s="7" cm="1">
-        <f t="array" ref="F37">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A37)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38">
+      <c r="G43" cm="1">
+        <f t="array" ref="G43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A43)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A43)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44">
+        <v>2015</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44" s="11">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A44)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45">
+        <v>2015</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A45)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A45)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46">
         <v>2013</v>
       </c>
-      <c r="C38" s="5">
-        <v>2</v>
-      </c>
-      <c r="D38" s="5">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F38" s="7" cm="1">
-        <f t="array" ref="F38">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A38)))&gt;0, 1, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39">
-        <v>2015</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="G46" cm="1">
+        <f t="array" ref="G46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A46)))&gt;0, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A46)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47">
+        <v>2013</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F39" s="7" cm="1">
-        <f t="array" ref="F39">IF(SUMPRODUCT(--ISNUMBER(SEARCH($J$2:$J$7,A39)))&gt;0, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1</v>
-      </c>
-      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($L$2:$L$8,A47)))&gt;0, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">IF(SUMPRODUCT(--ISNUMBER(SEARCH($M$2:$M$5,A47)))&gt;0, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J47" xr:uid="{D8C8723E-420C-4703-94A2-20B83C7EA3A0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
